--- a/docs/PTA2_DDC_20/PTA1_R_BDDC_31.07.24_output.xlsx
+++ b/docs/PTA2_DDC_20/PTA1_R_BDDC_31.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,3727 +505,4427 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731001862.5432901</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731001866.1601217</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731001862.5432901.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731001866.1601217.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>289.41</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>288.93</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.4800000000000182</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731001867.656697</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731001870.237793</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731001867.656697.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731001870.237793.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>289.74</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>289.81</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.06999999999999318</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731001871.4730403</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731001871.5797663</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731001871.4730403.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731001871.5797663.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>289.97</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>290.15</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.17999999999995</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731001875.0354226</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731001876.1009471</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731001875.0354226.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731001876.1009471.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>288.53</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>288.69</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.160000000000025</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731001877.1074536</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731001877.1074536.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731001877.1074536.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>288.92</v>
       </c>
-      <c r="J7" t="n">
-        <v>288.92</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
+      <c r="L7" t="n">
+        <v>289.15</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.2299999999999613</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731001878.95355</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731001881.8172696</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731001878.95355.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731001881.8172696.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>132.79</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>133.33</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.5400000000000205</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731001881.9804819</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731001885.3193507</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731001881.9804819.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731001885.3193507.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>132.61</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>132.64</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.02999999999997272</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731001885.613327</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731001889.0729947</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731001885.613327.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731001889.0729947.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>133.3</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>133.51</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.2099999999999795</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731001889.4522443</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731001890.3269463</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731001889.4522443.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731001890.3269463.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>133.17</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>134</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.8300000000000125</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731001893.3687098</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731001894.783548</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731001893.3687098.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731001894.783548.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>132.82</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>133.06</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731001894.9868712</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731001894.9868712.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731001894.9868712.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>133.2</v>
       </c>
-      <c r="J13" t="n">
-        <v>133.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
+      <c r="L13" t="n">
+        <v>133.35</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.1500000000000057</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731001899.8379605</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731001900.7678208</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731001899.8379605.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731001900.7678208.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6801</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6783.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>17.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731001900.809281</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731001903.1496344</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731001900.809281.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731001903.1496344.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6782</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6781</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731001905.1538281</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731001906.9533112</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731001905.1538281.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731001906.9533112.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6789</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6793</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-4</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731001908.190335</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731001912.111</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731001908.190335.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731001912.111.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6771.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6747</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-24.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731001912.9705508</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731001912.9705508.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731001912.9705508.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6749</v>
       </c>
-      <c r="J18" t="n">
-        <v>6749</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
+      <c r="L18" t="n">
+        <v>6747.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731001919.4764345</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731001921.3683977</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731001919.4764345.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731001921.3683977.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>511.05</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>512.5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>1.449999999999989</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731001923.8631847</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731001926.6042886</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731001923.8631847.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731001926.6042886.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>513.2</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>513.15</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.05000000000006821</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731001927.3027034</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731001928.3409212</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731001927.3027034.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731001928.3409212.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>512.6</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>513.85</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>1.25</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731001929.6420825</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731001930.5409563</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731001929.6420825.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731001930.5409563.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>515.05</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>514.05</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731001930.8932624</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731001932.968928</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731001930.8932624.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731001932.968928.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>513.4</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>514.05</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.6499999999999773</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731001933.5947382</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731001934.5442426</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731001933.5947382.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731001934.5442426.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>514.35</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>513.5</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.8500000000000227</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731001936.038757</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731001936.038757.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731001936.038757.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>514.85</v>
       </c>
-      <c r="J25" t="n">
-        <v>514.85</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
+      <c r="L25" t="n">
+        <v>514.95</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.1000000000000227</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731001938.4545932</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731001943.004998</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731001938.4545932.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731001943.004998.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1043.8</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1039.8</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-4</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731001943.476804</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731001944.0691397</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731001943.476804.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731001944.0691397.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1042.4</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1038</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>4.400000000000091</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731001944.4613047</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731001945.584954</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731001944.4613047.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731001945.584954.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1045.6</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1040.6</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731001948.8530073</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731001949.508643</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731001948.8530073.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731001949.508643.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1043.6</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1040.6</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>3</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731001953.5921087</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731001955.0055447</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731001953.5921087.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731001955.0055447.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1041.8</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1041.4</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.3999999999998636</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731001958.7206607</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731001962.0303597</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731001958.7206607.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731001962.0303597.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>11.953</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>11.967</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.01400000000000112</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731001962.6931098</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731001962.6931098.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731001962.6931098.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>11.961</v>
       </c>
-      <c r="J32" t="n">
-        <v>11.961</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
+      <c r="L32" t="n">
+        <v>11.859</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.1020000000000003</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.8500000000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731001976.6530087</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731001978.8936994</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731001976.6530087.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731001978.8936994.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>127.4</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>127.5</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731001980.5663497</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731001984.2105162</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731001980.5663497.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731001984.2105162.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>127.7</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>129.48</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-1.779999999999987</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-1.39</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731001991.4236887</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731001991.4236887.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731001991.4236887.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>129.9</v>
       </c>
-      <c r="J35" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
+      <c r="L35" t="n">
+        <v>129.82</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.08000000000001251</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731001995.284617</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731001999.1976883</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731001995.284617.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731001999.1976883.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>165.68</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>164.28</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-1.400000000000006</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.8500000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731001999.6497884</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731002000.687655</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731001999.6497884.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731002000.687655.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>164.84</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>164.64</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.2000000000000171</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731002000.9443853</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731002001.5092895</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731002000.9443853.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731002001.5092895.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>165.94</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>165.4</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.539999999999992</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731002005.8748333</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731002006.234568</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731002005.8748333.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731002006.234568.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>165.22</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>165</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731002008.4971707</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731002008.9936426</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731002008.4971707.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731002008.9936426.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>165.28</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>165.14</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.1400000000000148</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731002010.8744638</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731002010.8744638.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731002010.8744638.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>165.44</v>
       </c>
-      <c r="J41" t="n">
-        <v>165.44</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
+      <c r="L41" t="n">
+        <v>165.68</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.2400000000000091</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731002013.9439998</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731002018.230127</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731002013.9439998.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731002018.230127.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>51.3</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>50.985</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.3149999999999977</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.61</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731002019.4766686</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731002019.6057892</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731002019.4766686.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731002019.6057892.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>50.8</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>51.005</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.2050000000000054</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731002019.7359552</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731002020.7125463</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731002019.7359552.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731002020.7125463.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>51.13</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>50.985</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.1450000000000031</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731002023.889924</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731002026.7894323</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731002023.889924.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731002026.7894323.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>50.61</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>50.73</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.1199999999999974</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731002027.1566796</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731002030.0409923</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731002027.1566796.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731002030.0409923.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>50.82</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>50.705</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.115000000000002</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731002033.2933717</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731002036.8871117</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731002033.2933717.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731002036.8871117.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1421</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1417</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-4</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731002037.0436897</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731002037.204402</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731002037.0436897.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731002037.204402.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1413.8</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1416.8</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>3</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731002038.405641</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731002038.8636181</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731002038.405641.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731002038.8636181.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1421</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1418.4</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>2.599999999999909</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731002040.568418</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731002042.3563619</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731002040.568418.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731002042.3563619.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1413.2</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1415.4</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731002043.2521386</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731002046.8695652</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731002043.2521386.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731002046.8695652.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1413.4</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1412.8</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.6000000000001364</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731002047.1084821</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731002047.2382073</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731002047.1084821.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731002047.2382073.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>1412.6</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>1413</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.4000000000000909</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731002047.2541664</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731002047.2541664.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731002047.2541664.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1413</v>
       </c>
-      <c r="J53" t="n">
-        <v>1413</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
+      <c r="L53" t="n">
+        <v>1416.6</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-3.599999999999909</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731002049.1485462</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731002051.3669395</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731002049.1485462.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731002051.3669395.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>61.3</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>61.06</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.2399999999999949</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731002052.0671723</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731002055.6883576</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731002052.0671723.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731002055.6883576.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>60.92</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>60.87</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.05000000000000426</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731002056.0712566</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731002057.1742592</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731002056.0712566.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731002057.1742592.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>60.99</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>60.8</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.1900000000000048</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731002057.3714457</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731002058.147332</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731002057.3714457.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731002058.147332.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>61</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>60.87</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.1300000000000026</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731002063.0078108</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731002063.6233404</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731002063.0078108.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731002063.6233404.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>60.55</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>60.68</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.1300000000000026</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731002065.7479715</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731002065.7479715.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731002065.7479715.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>60.74</v>
       </c>
-      <c r="J59" t="n">
-        <v>60.74</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
+      <c r="L59" t="n">
+        <v>60.94</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.1999999999999957</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731002070.2467272</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731002071.2230127</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SELG1731002070.2467272.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SELG1731002071.2230127.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>58.58</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>58.25</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.3299999999999983</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731002071.556156</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731002074.9746735</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SELG1731002071.556156.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SELG1731002074.9746735.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>58.16</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>57.71</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.4499999999999957</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.77</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731002075.524406</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731002077.260646</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SELG1731002075.524406.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SELG1731002077.260646.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>57.91</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>57.89</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731002084.689636</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731002084.689636.png</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731002084.689636.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>57.95</v>
       </c>
-      <c r="J63" t="n">
-        <v>57.95</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
+      <c r="L63" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.8499999999999943</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-1.47</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731002086.6793525</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731002088.9977405</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731002086.6793525.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731002088.9977405.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>142.48</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>142.06</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.4199999999999875</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731002093.1186297</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731002094.4431343</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731002093.1186297.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731002094.4431343.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>142.98</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>142.72</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731002094.961359</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731002098.495408</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731002094.961359.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731002098.495408.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>143.5</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>143.96</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.460000000000008</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731002108.7072992</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731002116.2405183</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731002108.7072992.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731002116.2405183.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>85.31999999999999</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>84.94</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.3799999999999955</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731002124.003135</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731002126.2638865</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731002124.003135.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731002126.2638865.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>376.74</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>375.9</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.8400000000000318</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731002126.5210998</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731002130.469312</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731002126.5210998.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731002130.469312.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>375.34</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>373.12</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-2.21999999999997</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.59</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731002130.6623535</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731002133.8610475</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731002130.6623535.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731002133.8610475.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>374.06</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>374.44</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-0.3799999999999955</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731002134.1650417</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731002135.3138902</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731002134.1650417.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731002135.3138902.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>373.52</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>375.03</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>1.509999999999991</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731002136.1491044</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731002136.1491044.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731002136.1491044.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>374.01</v>
       </c>
-      <c r="J72" t="n">
-        <v>374.01</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
+      <c r="L72" t="n">
+        <v>376.43</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-2.420000000000016</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.65</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731002142.8424885</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731002143.5942311</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/FEES1731002142.8424885.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/FEES1731002143.5942311.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>0.09818</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>0.09764</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.0005399999999999988</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731002144.4036646</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731002146.5166693</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/FEES1731002144.4036646.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/FEES1731002146.5166693.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>0.09818</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>0.09810000000000001</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>7.999999999999674e-05</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731002149.1792874</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731002153.7793427</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/FEES1731002149.1792874.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/FEES1731002153.7793427.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>0.09862000000000001</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>0.09950000000000001</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-0.0008799999999999919</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.89</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731002154.1146107</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731002154.2744453</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/FEES1731002154.1146107.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/FEES1731002154.2744453.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>0.1002</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>0.09968</v>
       </c>
-      <c r="K76" t="n">
-        <v>0.0005200000000000066</v>
+      <c r="M76" t="n">
+        <v>0.0005199999999999927</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731002154.7415533</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731002156.066408</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/FEES1731002154.7415533.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/FEES1731002156.066408.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>0.09998000000000001</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>0.0998</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.0001800000000000135</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731002159.5858505</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731002159.9376354</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/FEES1731002159.5858505.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/FEES1731002159.9376354.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>0.0999</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>0.09992000000000001</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-2.000000000000612e-05</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731002160.009293</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731002160.7067146</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/FEES1731002160.009293.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/FEES1731002160.7067146.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>0.10002</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>0.10002</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4218,188 +4933,224 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731002161.7940674</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731002164.593907</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731002161.7940674.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731002164.593907.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>34.76</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>34.655</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.1049999999999969</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731002166.1641128</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731002167.8771298</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731002166.1641128.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731002167.8771298.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>34.63</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>34.66</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.02999999999999403</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731002171.3023014</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731002172.2778592</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731002171.3023014.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731002172.2778592.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>34.61</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>34.65</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731002176.718724</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731002176.718724.png</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731002176.718724.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>34.595</v>
       </c>
-      <c r="J83" t="n">
-        <v>34.595</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
+      <c r="L83" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="M83" t="n">
+        <v>-0.09499999999999886</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.27</v>
       </c>
     </row>
   </sheetData>
@@ -4413,7 +5164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4437,6 +5188,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4445,11 +5211,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.599999999999909</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4458,11 +5233,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0004200000000000176</v>
+        <v>0.0004200000000000037</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
+      <c r="D3" t="n">
+        <v>6.000000000000053e-05</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -4471,11 +5255,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.250000000000057</v>
+        <v>5.150000000000034</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.7357142857142905</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4484,11 +5277,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3499999999999943</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.03333333333333144</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4497,11 +5299,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6400000000000006</v>
+        <v>0.4400000000000048</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.07333333333333414</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4510,11 +5321,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2999999999999829</v>
+        <v>-0.539999999999992</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
+      <c r="D7" t="n">
+        <v>-0.08999999999999868</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.3400000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4528,6 +5348,15 @@
       <c r="C8" t="n">
         <v>5</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.05400000000000205</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4536,11 +5365,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2499999999999432</v>
+        <v>-2.669999999999959</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.5339999999999918</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4549,11 +5387,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-12</v>
+        <v>-10.5</v>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
+      <c r="D10" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4567,6 +5414,15 @@
       <c r="C11" t="n">
         <v>5</v>
       </c>
+      <c r="D11" t="n">
+        <v>1.759999999999991</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4575,11 +5431,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.2100000000000364</v>
+        <v>-0.4399999999999977</v>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.08799999999999955</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4588,11 +5453,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1749999999999901</v>
+        <v>0.07999999999999119</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.0199999999999978</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4601,11 +5475,20 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1000000000000014</v>
+        <v>-0.9499999999999957</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.2374999999999989</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.41</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -4619,6 +5502,15 @@
       <c r="C15" t="n">
         <v>3</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.07333333333332348</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4627,11 +5519,20 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.679999999999993</v>
+        <v>-1.59999999999998</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.5333333333333267</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.42</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4640,11 +5541,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01400000000000112</v>
+        <v>-0.1160000000000014</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
+      <c r="D17" t="n">
+        <v>-0.05800000000000072</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.9700000000000001</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.49</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4658,6 +5568,15 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
+      <c r="D18" t="n">
+        <v>-0.3799999999999955</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.45</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -4671,6 +5590,11 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
